--- a/Code/Results/Cases/Case_0_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9529631184557491</v>
+        <v>1.069019120957484</v>
       </c>
       <c r="D2">
-        <v>0.9653625431492989</v>
+        <v>1.077823153059952</v>
       </c>
       <c r="E2">
-        <v>0.9689048814999158</v>
+        <v>1.073285255758532</v>
       </c>
       <c r="F2">
-        <v>0.964281465197139</v>
+        <v>1.082915844690789</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033160983486374</v>
+        <v>1.028826599955195</v>
       </c>
       <c r="J2">
-        <v>0.9766478611945925</v>
+        <v>1.073955974649111</v>
       </c>
       <c r="K2">
-        <v>0.9773264963680204</v>
+        <v>1.080503440761082</v>
       </c>
       <c r="L2">
-        <v>0.9808151189609081</v>
+        <v>1.075977521907853</v>
       </c>
       <c r="M2">
-        <v>0.9762619120443286</v>
+        <v>1.08558281856547</v>
       </c>
       <c r="N2">
-        <v>0.9956728905219205</v>
+        <v>1.028199445568428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9708318055424873</v>
+        <v>1.07143628937875</v>
       </c>
       <c r="D3">
-        <v>0.9830004490504504</v>
+        <v>1.080193302035148</v>
       </c>
       <c r="E3">
-        <v>0.9852445723114155</v>
+        <v>1.075484881710314</v>
       </c>
       <c r="F3">
-        <v>0.9834327893129693</v>
+        <v>1.085358401357407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037675491788977</v>
+        <v>1.02908509060353</v>
       </c>
       <c r="J3">
-        <v>0.9921504910619492</v>
+        <v>1.076023245003704</v>
       </c>
       <c r="K3">
-        <v>0.9938555646442968</v>
+        <v>1.082687575346458</v>
       </c>
       <c r="L3">
-        <v>0.9960697991673395</v>
+        <v>1.077990655524713</v>
       </c>
       <c r="M3">
-        <v>0.9942821333883731</v>
+        <v>1.087840182043569</v>
       </c>
       <c r="N3">
-        <v>1.0008470167371</v>
+        <v>1.028887996310257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9813680994980668</v>
+        <v>1.072984117457136</v>
       </c>
       <c r="D4">
-        <v>0.9933828780220589</v>
+        <v>1.081709492391961</v>
       </c>
       <c r="E4">
-        <v>0.9948665276998692</v>
+        <v>1.076892050579358</v>
       </c>
       <c r="F4">
-        <v>0.994658837928404</v>
+        <v>1.086917309093332</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04026188950878</v>
+        <v>1.029242118693787</v>
       </c>
       <c r="J4">
-        <v>1.001260725256911</v>
+        <v>1.077344672200696</v>
       </c>
       <c r="K4">
-        <v>1.003561827453383</v>
+        <v>1.084083105105078</v>
       </c>
       <c r="L4">
-        <v>1.005027306629887</v>
+        <v>1.07927681974145</v>
       </c>
       <c r="M4">
-        <v>1.004822156412013</v>
+        <v>1.089278980483433</v>
       </c>
       <c r="N4">
-        <v>1.003888534939978</v>
+        <v>1.029328026116389</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9855927890847598</v>
+        <v>1.073631013351437</v>
       </c>
       <c r="D5">
-        <v>0.9975419588699224</v>
+        <v>1.082342797843427</v>
       </c>
       <c r="E5">
-        <v>0.9987217359261288</v>
+        <v>1.077479832957073</v>
       </c>
       <c r="F5">
-        <v>0.9991455216918499</v>
+        <v>1.087567591488412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041280941566844</v>
+        <v>1.029305697846106</v>
       </c>
       <c r="J5">
-        <v>1.004906724520748</v>
+        <v>1.077896383097141</v>
       </c>
       <c r="K5">
-        <v>1.007444793586385</v>
+        <v>1.084665610480825</v>
       </c>
       <c r="L5">
-        <v>1.008610624799496</v>
+        <v>1.079813649395276</v>
       </c>
       <c r="M5">
-        <v>1.00902941105752</v>
+        <v>1.089878698913228</v>
       </c>
       <c r="N5">
-        <v>1.005105918935926</v>
+        <v>1.029511719154597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9862910887783675</v>
+        <v>1.073739408729756</v>
       </c>
       <c r="D6">
-        <v>0.9982291915120133</v>
+        <v>1.082448894334402</v>
       </c>
       <c r="E6">
-        <v>0.9993587996151949</v>
+        <v>1.077578303904873</v>
       </c>
       <c r="F6">
-        <v>0.9998863004065038</v>
+        <v>1.087676481168919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041448321386802</v>
+        <v>1.029316230643029</v>
       </c>
       <c r="J6">
-        <v>1.005508978700021</v>
+        <v>1.077988795920277</v>
       </c>
       <c r="K6">
-        <v>1.008086101492288</v>
+        <v>1.08476317296032</v>
       </c>
       <c r="L6">
-        <v>1.009202436212255</v>
+        <v>1.079903560240943</v>
       </c>
       <c r="M6">
-        <v>1.009723751352691</v>
+        <v>1.089979094468624</v>
       </c>
       <c r="N6">
-        <v>1.005307015493105</v>
+        <v>1.02954248671559</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9814253096736743</v>
+        <v>1.072992776185234</v>
       </c>
       <c r="D7">
-        <v>0.9934392150106945</v>
+        <v>1.081717970662658</v>
       </c>
       <c r="E7">
-        <v>0.9949187456565787</v>
+        <v>1.076899919360075</v>
       </c>
       <c r="F7">
-        <v>0.9947196527568978</v>
+        <v>1.086926018056107</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040275761328536</v>
+        <v>1.029242977792664</v>
       </c>
       <c r="J7">
-        <v>1.001310125870693</v>
+        <v>1.077352059096119</v>
       </c>
       <c r="K7">
-        <v>1.003614444911722</v>
+        <v>1.084090904879213</v>
       </c>
       <c r="L7">
-        <v>1.005075864064068</v>
+        <v>1.079284008016959</v>
       </c>
       <c r="M7">
-        <v>1.004879204435219</v>
+        <v>1.089287014088058</v>
       </c>
       <c r="N7">
-        <v>1.003905029125643</v>
+        <v>1.029330485691656</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9592434874953838</v>
+        <v>1.069839424684359</v>
       </c>
       <c r="D8">
-        <v>0.9715659880573384</v>
+        <v>1.078627817819899</v>
       </c>
       <c r="E8">
-        <v>0.9746508181466097</v>
+        <v>1.074032014784045</v>
       </c>
       <c r="F8">
-        <v>0.9710283645686716</v>
+        <v>1.08374584151299</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034764484743186</v>
+        <v>1.028916085755686</v>
       </c>
       <c r="J8">
-        <v>0.9821038325674716</v>
+        <v>1.074658022678529</v>
       </c>
       <c r="K8">
-        <v>0.9831454070206295</v>
+        <v>1.081245300549087</v>
       </c>
       <c r="L8">
-        <v>0.9861854726008344</v>
+        <v>1.076661321837036</v>
       </c>
       <c r="M8">
-        <v>0.9826156220017537</v>
+        <v>1.086350283557198</v>
       </c>
       <c r="N8">
-        <v>0.997493607979193</v>
+        <v>1.02843329940117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9092782294038585</v>
+        <v>1.064154813679999</v>
       </c>
       <c r="D9">
-        <v>0.9220928658207915</v>
+        <v>1.073045252643525</v>
       </c>
       <c r="E9">
-        <v>0.9288546271512944</v>
+        <v>1.068851459266332</v>
       </c>
       <c r="F9">
-        <v>0.9169021613671828</v>
+        <v>1.077972560265762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02160838742502</v>
+        <v>1.028260991053742</v>
       </c>
       <c r="J9">
-        <v>0.9384983194425522</v>
+        <v>1.069783183462584</v>
       </c>
       <c r="K9">
-        <v>0.9365904715731052</v>
+        <v>1.076091538057456</v>
       </c>
       <c r="L9">
-        <v>0.943218071276603</v>
+        <v>1.071910468255929</v>
       </c>
       <c r="M9">
-        <v>0.9315045265049209</v>
+        <v>1.081004034511431</v>
       </c>
       <c r="N9">
-        <v>0.9829522978424866</v>
+        <v>1.026809063352123</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8589229653454739</v>
+        <v>1.060273747633182</v>
       </c>
       <c r="D10">
-        <v>0.871951393455051</v>
+        <v>1.069225900598668</v>
       </c>
       <c r="E10">
-        <v>0.8825088190540178</v>
+        <v>1.065307505447957</v>
       </c>
       <c r="F10">
-        <v>0.8613168875803165</v>
+        <v>1.074003875750705</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.007677160737226</v>
+        <v>1.027770033257069</v>
       </c>
       <c r="J10">
-        <v>0.8941164602020958</v>
+        <v>1.066442732605867</v>
       </c>
       <c r="K10">
-        <v>0.8890939881217649</v>
+        <v>1.072556841162668</v>
       </c>
       <c r="L10">
-        <v>0.8993816121740499</v>
+        <v>1.068651559106127</v>
       </c>
       <c r="M10">
-        <v>0.8787403507290611</v>
+        <v>1.077318968639873</v>
       </c>
       <c r="N10">
-        <v>0.9681837717555407</v>
+        <v>1.025695549803324</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8230324185509544</v>
+        <v>1.058570307346343</v>
       </c>
       <c r="D11">
-        <v>0.8360100607989983</v>
+        <v>1.067547670010849</v>
       </c>
       <c r="E11">
-        <v>0.8493338373975916</v>
+        <v>1.063750375555772</v>
       </c>
       <c r="F11">
-        <v>0.8209939139745975</v>
+        <v>1.072255569971811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9974693189424751</v>
+        <v>1.027544317817337</v>
       </c>
       <c r="J11">
-        <v>0.8622045491563961</v>
+        <v>1.06497368053575</v>
       </c>
       <c r="K11">
-        <v>0.8548663146237827</v>
+        <v>1.071001630421227</v>
       </c>
       <c r="L11">
-        <v>0.8677924272614628</v>
+        <v>1.067217563141581</v>
       </c>
       <c r="M11">
-        <v>0.8403198123828455</v>
+        <v>1.075693274409117</v>
       </c>
       <c r="N11">
-        <v>0.9575900235979727</v>
+        <v>1.025205733094287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.800397698800004</v>
+        <v>1.057934020794381</v>
       </c>
       <c r="D12">
-        <v>0.8132324540217584</v>
+        <v>1.066920518641348</v>
       </c>
       <c r="E12">
-        <v>0.828329851876688</v>
+        <v>1.063168493227142</v>
       </c>
       <c r="F12">
-        <v>0.7952026812029662</v>
+        <v>1.071601562535875</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9909251432092222</v>
+        <v>1.027458480334124</v>
       </c>
       <c r="J12">
-        <v>0.8419398355472003</v>
+        <v>1.064424511003106</v>
       </c>
       <c r="K12">
-        <v>0.8330923773318454</v>
+        <v>1.07042014265738</v>
       </c>
       <c r="L12">
-        <v>0.8476970147644928</v>
+        <v>1.066681378174043</v>
       </c>
       <c r="M12">
-        <v>0.8156854950349337</v>
+        <v>1.0750847855689</v>
       </c>
       <c r="N12">
-        <v>0.9508753780248931</v>
+        <v>1.025022609302231</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8064209240909553</v>
+        <v>1.058070669028416</v>
       </c>
       <c r="D13">
-        <v>0.8193033981602315</v>
+        <v>1.06705521772904</v>
       </c>
       <c r="E13">
-        <v>0.8339265063395136</v>
+        <v>1.063293468827472</v>
       </c>
       <c r="F13">
-        <v>0.8020964648956626</v>
+        <v>1.07174205999492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9926750122846588</v>
+        <v>1.027476983531608</v>
       </c>
       <c r="J13">
-        <v>0.8473441138558045</v>
+        <v>1.064542469697131</v>
       </c>
       <c r="K13">
-        <v>0.8389023872178506</v>
+        <v>1.070545048099477</v>
       </c>
       <c r="L13">
-        <v>0.8530591693411761</v>
+        <v>1.066796553285047</v>
       </c>
       <c r="M13">
-        <v>0.822274658510645</v>
+        <v>1.075215520177272</v>
       </c>
       <c r="N13">
-        <v>0.9526650537145475</v>
+        <v>1.025061944113274</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8215331380849195</v>
+        <v>1.058517784838481</v>
       </c>
       <c r="D14">
-        <v>0.8345042467704705</v>
+        <v>1.067495907297463</v>
       </c>
       <c r="E14">
-        <v>0.8479447828305859</v>
+        <v>1.063702348892069</v>
       </c>
       <c r="F14">
-        <v>0.8192948910693051</v>
+        <v>1.072201604281011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9970384469726149</v>
+        <v>1.027537263343928</v>
       </c>
       <c r="J14">
-        <v>0.860865835565206</v>
+        <v>1.06492835797108</v>
       </c>
       <c r="K14">
-        <v>0.8534288912802381</v>
+        <v>1.070953642891979</v>
       </c>
       <c r="L14">
-        <v>0.8664658187360242</v>
+        <v>1.067173314630558</v>
       </c>
       <c r="M14">
-        <v>0.8386984425723542</v>
+        <v>1.075643071776895</v>
       </c>
       <c r="N14">
-        <v>0.9571461305875019</v>
+        <v>1.02519062037835</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8289682633115514</v>
+        <v>1.058792793451849</v>
       </c>
       <c r="D15">
-        <v>0.841968025080543</v>
+        <v>1.067766926121094</v>
       </c>
       <c r="E15">
-        <v>0.8548305093591191</v>
+        <v>1.063953807107576</v>
       </c>
       <c r="F15">
-        <v>0.8277083962464781</v>
+        <v>1.072484130105434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9991716952971205</v>
+        <v>1.02757413838242</v>
       </c>
       <c r="J15">
-        <v>0.8675000095805504</v>
+        <v>1.065165649844133</v>
       </c>
       <c r="K15">
-        <v>0.8605509373735551</v>
+        <v>1.071204883028355</v>
       </c>
       <c r="L15">
-        <v>0.8730388083684572</v>
+        <v>1.067404978251716</v>
       </c>
       <c r="M15">
-        <v>0.8467254391004539</v>
+        <v>1.075905882713148</v>
       </c>
       <c r="N15">
-        <v>0.9593463245062153</v>
+        <v>1.025269744144686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.860793411611623</v>
+        <v>1.060386307275033</v>
       </c>
       <c r="D16">
-        <v>0.8738194303609871</v>
+        <v>1.069336755155007</v>
       </c>
       <c r="E16">
-        <v>0.8842341388144735</v>
+        <v>1.065410362691005</v>
       </c>
       <c r="F16">
-        <v>0.8634012146227434</v>
+        <v>1.074119265761149</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.00820339199597</v>
+        <v>1.027784734614245</v>
       </c>
       <c r="J16">
-        <v>0.8957728887701587</v>
+        <v>1.066539743803525</v>
       </c>
       <c r="K16">
-        <v>0.8908687831534502</v>
+        <v>1.0726595266503</v>
       </c>
       <c r="L16">
-        <v>0.9010196148398433</v>
+        <v>1.068746238523814</v>
       </c>
       <c r="M16">
-        <v>0.8807231887700934</v>
+        <v>1.077426217580263</v>
       </c>
       <c r="N16">
-        <v>0.9687342704637947</v>
+        <v>1.025727893151587</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8758465407606419</v>
+        <v>1.061379665364634</v>
       </c>
       <c r="D17">
-        <v>0.8888368471613479</v>
+        <v>1.070314850342039</v>
       </c>
       <c r="E17">
-        <v>0.8981079691897471</v>
+        <v>1.066317906136354</v>
       </c>
       <c r="F17">
-        <v>0.8801186528195459</v>
+        <v>1.075136867337404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01241594594042</v>
+        <v>1.027913304691276</v>
       </c>
       <c r="J17">
-        <v>0.9090810777831637</v>
+        <v>1.067395552421106</v>
       </c>
       <c r="K17">
-        <v>0.9051218201309075</v>
+        <v>1.07356530840483</v>
       </c>
       <c r="L17">
-        <v>0.91417418933015</v>
+        <v>1.069581384694722</v>
       </c>
       <c r="M17">
-        <v>0.896614995065768</v>
+        <v>1.07837175822677</v>
       </c>
       <c r="N17">
-        <v>0.9731591827662769</v>
+        <v>1.026013204448257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8836547582440959</v>
+        <v>1.061956871269242</v>
       </c>
       <c r="D18">
-        <v>0.8966155670849703</v>
+        <v>1.07088300779776</v>
       </c>
       <c r="E18">
-        <v>0.9052969184323527</v>
+        <v>1.066845089985466</v>
       </c>
       <c r="F18">
-        <v>0.8887513736436246</v>
+        <v>1.07572754687332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.014584345431098</v>
+        <v>1.027987032570145</v>
       </c>
       <c r="J18">
-        <v>0.9159686820755826</v>
+        <v>1.067892556135182</v>
       </c>
       <c r="K18">
-        <v>0.9124942411825993</v>
+        <v>1.074091263428414</v>
       </c>
       <c r="L18">
-        <v>0.9209784889509451</v>
+        <v>1.070066311970602</v>
       </c>
       <c r="M18">
-        <v>0.9048130536203852</v>
+        <v>1.078920386481344</v>
       </c>
       <c r="N18">
-        <v>0.9754506662774795</v>
+        <v>1.026178885157277</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8861878285179082</v>
+        <v>1.062153313166185</v>
       </c>
       <c r="D19">
-        <v>0.8991375179482652</v>
+        <v>1.071076339711131</v>
       </c>
       <c r="E19">
-        <v>0.907628032842137</v>
+        <v>1.067024480897345</v>
       </c>
       <c r="F19">
-        <v>0.8915463742666059</v>
+        <v>1.075928470211696</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015285182027838</v>
+        <v>1.028011958044035</v>
       </c>
       <c r="J19">
-        <v>0.9182008566708119</v>
+        <v>1.06806165562403</v>
       </c>
       <c r="K19">
-        <v>0.9148829383796536</v>
+        <v>1.074270201335191</v>
       </c>
       <c r="L19">
-        <v>0.923183120421719</v>
+        <v>1.070231289539305</v>
       </c>
       <c r="M19">
-        <v>0.9074660738731305</v>
+        <v>1.079106967991318</v>
       </c>
       <c r="N19">
-        <v>0.976193498396917</v>
+        <v>1.026235254060558</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8743417258023418</v>
+        <v>1.061273316100088</v>
       </c>
       <c r="D20">
-        <v>0.8873368738830967</v>
+        <v>1.070210153739542</v>
       </c>
       <c r="E20">
-        <v>0.8967219231302755</v>
+        <v>1.066220760591858</v>
       </c>
       <c r="F20">
-        <v>0.8784519369990532</v>
+        <v>1.075027986093475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011996692700089</v>
+        <v>1.027899641342426</v>
       </c>
       <c r="J20">
-        <v>0.9077524801151714</v>
+        <v>1.067303957936483</v>
       </c>
       <c r="K20">
-        <v>0.9036993783291866</v>
+        <v>1.073468372721619</v>
       </c>
       <c r="L20">
-        <v>0.912861366039076</v>
+        <v>1.069492009609682</v>
       </c>
       <c r="M20">
-        <v>0.8950315371309988</v>
+        <v>1.078270610406651</v>
       </c>
       <c r="N20">
-        <v>0.9727172691926773</v>
+        <v>1.025982669668198</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8175749157889375</v>
+        <v>1.058386219367464</v>
       </c>
       <c r="D21">
-        <v>0.8305268804499365</v>
+        <v>1.067366240524267</v>
       </c>
       <c r="E21">
-        <v>0.8442761534484354</v>
+        <v>1.063582041234769</v>
       </c>
       <c r="F21">
-        <v>0.8148032246419279</v>
+        <v>1.072066408207493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9958991802418961</v>
+        <v>1.027519567765051</v>
       </c>
       <c r="J21">
-        <v>0.8573291770853063</v>
+        <v>1.064814820888958</v>
       </c>
       <c r="K21">
-        <v>0.8496308072449956</v>
+        <v>1.070833428063403</v>
       </c>
       <c r="L21">
-        <v>0.8629605381933139</v>
+        <v>1.067062466209912</v>
       </c>
       <c r="M21">
-        <v>0.8344110932764378</v>
+        <v>1.075517297397</v>
       </c>
       <c r="N21">
-        <v>0.9559736493018527</v>
+        <v>1.025152761387739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8175749157889375</v>
+        <v>1.056550372352482</v>
       </c>
       <c r="D22">
-        <v>0.8305268804499365</v>
+        <v>1.065556219911509</v>
       </c>
       <c r="E22">
-        <v>0.8442761534484354</v>
+        <v>1.061902698356805</v>
       </c>
       <c r="F22">
-        <v>0.8148032246419279</v>
+        <v>1.070177614871781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9958991802418961</v>
+        <v>1.027269034763175</v>
       </c>
       <c r="J22">
-        <v>0.8573291770853063</v>
+        <v>1.063229509145785</v>
       </c>
       <c r="K22">
-        <v>0.8496308072449956</v>
+        <v>1.069154614566493</v>
       </c>
       <c r="L22">
-        <v>0.8629605381933139</v>
+        <v>1.065514410761908</v>
       </c>
       <c r="M22">
-        <v>0.8344110932764378</v>
+        <v>1.073759307514697</v>
       </c>
       <c r="N22">
-        <v>0.9559736493018527</v>
+        <v>1.024624096838554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8175749157889375</v>
+        <v>1.057525581796965</v>
       </c>
       <c r="D23">
-        <v>0.8305268804499365</v>
+        <v>1.066517864426389</v>
       </c>
       <c r="E23">
-        <v>0.8442761534484354</v>
+        <v>1.062794907381355</v>
       </c>
       <c r="F23">
-        <v>0.8148032246419279</v>
+        <v>1.071181477348422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9958991802418961</v>
+        <v>1.027402951918858</v>
       </c>
       <c r="J23">
-        <v>0.8573291770853063</v>
+        <v>1.064071871144219</v>
       </c>
       <c r="K23">
-        <v>0.8496308072449956</v>
+        <v>1.070046719281726</v>
       </c>
       <c r="L23">
-        <v>0.8629605381933139</v>
+        <v>1.066337042301855</v>
       </c>
       <c r="M23">
-        <v>0.8344110932764378</v>
+        <v>1.074693840312597</v>
       </c>
       <c r="N23">
-        <v>0.9559736493018527</v>
+        <v>1.024905014535694</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8750245444440043</v>
+        <v>1.061321377556024</v>
       </c>
       <c r="D24">
-        <v>0.8880175297835226</v>
+        <v>1.070257468879234</v>
       </c>
       <c r="E24">
-        <v>0.8973508731787465</v>
+        <v>1.06626466318387</v>
       </c>
       <c r="F24">
-        <v>0.8792083403364543</v>
+        <v>1.075077193702559</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012186984374097</v>
+        <v>1.02790581912876</v>
       </c>
       <c r="J24">
-        <v>0.9083553876347744</v>
+        <v>1.067345352256247</v>
       </c>
       <c r="K24">
-        <v>0.9043448847012652</v>
+        <v>1.073512181107961</v>
       </c>
       <c r="L24">
-        <v>0.9134571271632463</v>
+        <v>1.069532401153706</v>
       </c>
       <c r="M24">
-        <v>0.8957501819439463</v>
+        <v>1.078316323674491</v>
       </c>
       <c r="N24">
-        <v>0.9729178018834634</v>
+        <v>1.025996469294918</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.924064638874289</v>
+        <v>1.065640118342238</v>
       </c>
       <c r="D25">
-        <v>0.9367619056378986</v>
+        <v>1.074505284942765</v>
       </c>
       <c r="E25">
-        <v>0.9424266071755905</v>
+        <v>1.070206291007077</v>
       </c>
       <c r="F25">
-        <v>0.9330256180816368</v>
+        <v>1.079485760284381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025586979226338</v>
+        <v>1.028439823532324</v>
       </c>
       <c r="J25">
-        <v>0.9514486906331407</v>
+        <v>1.071059044842525</v>
       </c>
       <c r="K25">
-        <v>0.9504282274046529</v>
+        <v>1.077440944476843</v>
       </c>
       <c r="L25">
-        <v>0.9559896603277402</v>
+        <v>1.073154477078272</v>
       </c>
       <c r="M25">
-        <v>0.9467609482134598</v>
+        <v>1.082407043118302</v>
       </c>
       <c r="N25">
-        <v>0.9872681886778515</v>
+        <v>1.027234255435885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069019120957484</v>
+        <v>0.9529631184557499</v>
       </c>
       <c r="D2">
-        <v>1.077823153059952</v>
+        <v>0.9653625431492995</v>
       </c>
       <c r="E2">
-        <v>1.073285255758532</v>
+        <v>0.9689048814999163</v>
       </c>
       <c r="F2">
-        <v>1.082915844690789</v>
+        <v>0.9642814651971396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028826599955195</v>
+        <v>1.033160983486374</v>
       </c>
       <c r="J2">
-        <v>1.073955974649111</v>
+        <v>0.9766478611945931</v>
       </c>
       <c r="K2">
-        <v>1.080503440761082</v>
+        <v>0.9773264963680209</v>
       </c>
       <c r="L2">
-        <v>1.075977521907853</v>
+        <v>0.9808151189609087</v>
       </c>
       <c r="M2">
-        <v>1.08558281856547</v>
+        <v>0.976261912044329</v>
       </c>
       <c r="N2">
-        <v>1.028199445568428</v>
+        <v>0.9956728905219209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07143628937875</v>
+        <v>0.9708318055424865</v>
       </c>
       <c r="D3">
-        <v>1.080193302035148</v>
+        <v>0.9830004490504496</v>
       </c>
       <c r="E3">
-        <v>1.075484881710314</v>
+        <v>0.9852445723114144</v>
       </c>
       <c r="F3">
-        <v>1.085358401357407</v>
+        <v>0.9834327893129681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02908509060353</v>
+        <v>1.037675491788977</v>
       </c>
       <c r="J3">
-        <v>1.076023245003704</v>
+        <v>0.9921504910619482</v>
       </c>
       <c r="K3">
-        <v>1.082687575346458</v>
+        <v>0.9938555646442959</v>
       </c>
       <c r="L3">
-        <v>1.077990655524713</v>
+        <v>0.9960697991673385</v>
       </c>
       <c r="M3">
-        <v>1.087840182043569</v>
+        <v>0.9942821333883719</v>
       </c>
       <c r="N3">
-        <v>1.028887996310257</v>
+        <v>1.000847016737099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072984117457136</v>
+        <v>0.9813680994980657</v>
       </c>
       <c r="D4">
-        <v>1.081709492391961</v>
+        <v>0.9933828780220575</v>
       </c>
       <c r="E4">
-        <v>1.076892050579358</v>
+        <v>0.9948665276998679</v>
       </c>
       <c r="F4">
-        <v>1.086917309093332</v>
+        <v>0.9946588379284029</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029242118693787</v>
+        <v>1.04026188950878</v>
       </c>
       <c r="J4">
-        <v>1.077344672200696</v>
+        <v>1.00126072525691</v>
       </c>
       <c r="K4">
-        <v>1.084083105105078</v>
+        <v>1.003561827453381</v>
       </c>
       <c r="L4">
-        <v>1.07927681974145</v>
+        <v>1.005027306629886</v>
       </c>
       <c r="M4">
-        <v>1.089278980483433</v>
+        <v>1.004822156412012</v>
       </c>
       <c r="N4">
-        <v>1.029328026116389</v>
+        <v>1.003888534939977</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073631013351437</v>
+        <v>0.9855927890847624</v>
       </c>
       <c r="D5">
-        <v>1.082342797843427</v>
+        <v>0.9975419588699252</v>
       </c>
       <c r="E5">
-        <v>1.077479832957073</v>
+        <v>0.9987217359261311</v>
       </c>
       <c r="F5">
-        <v>1.087567591488412</v>
+        <v>0.9991455216918526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029305697846106</v>
+        <v>1.041280941566844</v>
       </c>
       <c r="J5">
-        <v>1.077896383097141</v>
+        <v>1.00490672452075</v>
       </c>
       <c r="K5">
-        <v>1.084665610480825</v>
+        <v>1.007444793586387</v>
       </c>
       <c r="L5">
-        <v>1.079813649395276</v>
+        <v>1.008610624799499</v>
       </c>
       <c r="M5">
-        <v>1.089878698913228</v>
+        <v>1.009029411057522</v>
       </c>
       <c r="N5">
-        <v>1.029511719154597</v>
+        <v>1.005105918935927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073739408729756</v>
+        <v>0.9862910887783667</v>
       </c>
       <c r="D6">
-        <v>1.082448894334402</v>
+        <v>0.9982291915120118</v>
       </c>
       <c r="E6">
-        <v>1.077578303904873</v>
+        <v>0.9993587996151942</v>
       </c>
       <c r="F6">
-        <v>1.087676481168919</v>
+        <v>0.9998863004065024</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029316230643029</v>
+        <v>1.041448321386802</v>
       </c>
       <c r="J6">
-        <v>1.077988795920277</v>
+        <v>1.00550897870002</v>
       </c>
       <c r="K6">
-        <v>1.08476317296032</v>
+        <v>1.008086101492287</v>
       </c>
       <c r="L6">
-        <v>1.079903560240943</v>
+        <v>1.009202436212254</v>
       </c>
       <c r="M6">
-        <v>1.089979094468624</v>
+        <v>1.00972375135269</v>
       </c>
       <c r="N6">
-        <v>1.02954248671559</v>
+        <v>1.005307015493105</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072992776185234</v>
+        <v>0.9814253096736724</v>
       </c>
       <c r="D7">
-        <v>1.081717970662658</v>
+        <v>0.9934392150106924</v>
       </c>
       <c r="E7">
-        <v>1.076899919360075</v>
+        <v>0.9949187456565771</v>
       </c>
       <c r="F7">
-        <v>1.086926018056107</v>
+        <v>0.9947196527568959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029242977792664</v>
+        <v>1.040275761328536</v>
       </c>
       <c r="J7">
-        <v>1.077352059096119</v>
+        <v>1.001310125870691</v>
       </c>
       <c r="K7">
-        <v>1.084090904879213</v>
+        <v>1.00361444491172</v>
       </c>
       <c r="L7">
-        <v>1.079284008016959</v>
+        <v>1.005075864064066</v>
       </c>
       <c r="M7">
-        <v>1.089287014088058</v>
+        <v>1.004879204435218</v>
       </c>
       <c r="N7">
-        <v>1.029330485691656</v>
+        <v>1.003905029125642</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.069839424684359</v>
+        <v>0.9592434874953845</v>
       </c>
       <c r="D8">
-        <v>1.078627817819899</v>
+        <v>0.9715659880573391</v>
       </c>
       <c r="E8">
-        <v>1.074032014784045</v>
+        <v>0.9746508181466103</v>
       </c>
       <c r="F8">
-        <v>1.08374584151299</v>
+        <v>0.9710283645686721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028916085755686</v>
+        <v>1.034764484743186</v>
       </c>
       <c r="J8">
-        <v>1.074658022678529</v>
+        <v>0.9821038325674721</v>
       </c>
       <c r="K8">
-        <v>1.081245300549087</v>
+        <v>0.9831454070206301</v>
       </c>
       <c r="L8">
-        <v>1.076661321837036</v>
+        <v>0.986185472600835</v>
       </c>
       <c r="M8">
-        <v>1.086350283557198</v>
+        <v>0.9826156220017543</v>
       </c>
       <c r="N8">
-        <v>1.02843329940117</v>
+        <v>0.9974936079791931</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064154813679999</v>
+        <v>0.9092782294038598</v>
       </c>
       <c r="D9">
-        <v>1.073045252643525</v>
+        <v>0.9220928658207929</v>
       </c>
       <c r="E9">
-        <v>1.068851459266332</v>
+        <v>0.9288546271512955</v>
       </c>
       <c r="F9">
-        <v>1.077972560265762</v>
+        <v>0.9169021613671841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028260991053742</v>
+        <v>1.02160838742502</v>
       </c>
       <c r="J9">
-        <v>1.069783183462584</v>
+        <v>0.9384983194425537</v>
       </c>
       <c r="K9">
-        <v>1.076091538057456</v>
+        <v>0.9365904715731068</v>
       </c>
       <c r="L9">
-        <v>1.071910468255929</v>
+        <v>0.9432180712766042</v>
       </c>
       <c r="M9">
-        <v>1.081004034511431</v>
+        <v>0.9315045265049222</v>
       </c>
       <c r="N9">
-        <v>1.026809063352123</v>
+        <v>0.9829522978424872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060273747633182</v>
+        <v>0.8589229653454717</v>
       </c>
       <c r="D10">
-        <v>1.069225900598668</v>
+        <v>0.8719513934550489</v>
       </c>
       <c r="E10">
-        <v>1.065307505447957</v>
+        <v>0.8825088190540157</v>
       </c>
       <c r="F10">
-        <v>1.074003875750705</v>
+        <v>0.8613168875803143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027770033257069</v>
+        <v>1.007677160737225</v>
       </c>
       <c r="J10">
-        <v>1.066442732605867</v>
+        <v>0.8941164602020937</v>
       </c>
       <c r="K10">
-        <v>1.072556841162668</v>
+        <v>0.8890939881217628</v>
       </c>
       <c r="L10">
-        <v>1.068651559106127</v>
+        <v>0.8993816121740481</v>
       </c>
       <c r="M10">
-        <v>1.077318968639873</v>
+        <v>0.878740350729059</v>
       </c>
       <c r="N10">
-        <v>1.025695549803324</v>
+        <v>0.9681837717555398</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058570307346343</v>
+        <v>0.8230324185509605</v>
       </c>
       <c r="D11">
-        <v>1.067547670010849</v>
+        <v>0.8360100607990046</v>
       </c>
       <c r="E11">
-        <v>1.063750375555772</v>
+        <v>0.8493338373975975</v>
       </c>
       <c r="F11">
-        <v>1.072255569971811</v>
+        <v>0.8209939139746043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027544317817337</v>
+        <v>0.9974693189424765</v>
       </c>
       <c r="J11">
-        <v>1.06497368053575</v>
+        <v>0.862204549156402</v>
       </c>
       <c r="K11">
-        <v>1.071001630421227</v>
+        <v>0.8548663146237887</v>
       </c>
       <c r="L11">
-        <v>1.067217563141581</v>
+        <v>0.8677924272614683</v>
       </c>
       <c r="M11">
-        <v>1.075693274409117</v>
+        <v>0.8403198123828519</v>
       </c>
       <c r="N11">
-        <v>1.025205733094287</v>
+        <v>0.9575900235979746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057934020794381</v>
+        <v>0.8003976988000063</v>
       </c>
       <c r="D12">
-        <v>1.066920518641348</v>
+        <v>0.8132324540217603</v>
       </c>
       <c r="E12">
-        <v>1.063168493227142</v>
+        <v>0.8283298518766896</v>
       </c>
       <c r="F12">
-        <v>1.071601562535875</v>
+        <v>0.7952026812029681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027458480334124</v>
+        <v>0.9909251432092222</v>
       </c>
       <c r="J12">
-        <v>1.064424511003106</v>
+        <v>0.8419398355472025</v>
       </c>
       <c r="K12">
-        <v>1.07042014265738</v>
+        <v>0.8330923773318474</v>
       </c>
       <c r="L12">
-        <v>1.066681378174043</v>
+        <v>0.8476970147644945</v>
       </c>
       <c r="M12">
-        <v>1.0750847855689</v>
+        <v>0.8156854950349353</v>
       </c>
       <c r="N12">
-        <v>1.025022609302231</v>
+        <v>0.9508753780248937</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058070669028416</v>
+        <v>0.8064209240909581</v>
       </c>
       <c r="D13">
-        <v>1.06705521772904</v>
+        <v>0.8193033981602343</v>
       </c>
       <c r="E13">
-        <v>1.063293468827472</v>
+        <v>0.8339265063395157</v>
       </c>
       <c r="F13">
-        <v>1.07174205999492</v>
+        <v>0.8020964648956653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027476983531608</v>
+        <v>0.9926750122846595</v>
       </c>
       <c r="J13">
-        <v>1.064542469697131</v>
+        <v>0.8473441138558069</v>
       </c>
       <c r="K13">
-        <v>1.070545048099477</v>
+        <v>0.838902387217853</v>
       </c>
       <c r="L13">
-        <v>1.066796553285047</v>
+        <v>0.8530591693411783</v>
       </c>
       <c r="M13">
-        <v>1.075215520177272</v>
+        <v>0.8222746585106475</v>
       </c>
       <c r="N13">
-        <v>1.025061944113274</v>
+        <v>0.952665053714548</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058517784838481</v>
+        <v>0.8215331380849228</v>
       </c>
       <c r="D14">
-        <v>1.067495907297463</v>
+        <v>0.8345042467704741</v>
       </c>
       <c r="E14">
-        <v>1.063702348892069</v>
+        <v>0.8479447828305884</v>
       </c>
       <c r="F14">
-        <v>1.072201604281011</v>
+        <v>0.8192948910693086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027537263343928</v>
+        <v>0.9970384469726158</v>
       </c>
       <c r="J14">
-        <v>1.06492835797108</v>
+        <v>0.8608658355652092</v>
       </c>
       <c r="K14">
-        <v>1.070953642891979</v>
+        <v>0.8534288912802415</v>
       </c>
       <c r="L14">
-        <v>1.067173314630558</v>
+        <v>0.8664658187360269</v>
       </c>
       <c r="M14">
-        <v>1.075643071776895</v>
+        <v>0.8386984425723577</v>
       </c>
       <c r="N14">
-        <v>1.02519062037835</v>
+        <v>0.9571461305875028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058792793451849</v>
+        <v>0.828968263311553</v>
       </c>
       <c r="D15">
-        <v>1.067766926121094</v>
+        <v>0.8419680250805444</v>
       </c>
       <c r="E15">
-        <v>1.063953807107576</v>
+        <v>0.8548305093591207</v>
       </c>
       <c r="F15">
-        <v>1.072484130105434</v>
+        <v>0.8277083962464796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02757413838242</v>
+        <v>0.9991716952971206</v>
       </c>
       <c r="J15">
-        <v>1.065165649844133</v>
+        <v>0.8675000095805518</v>
       </c>
       <c r="K15">
-        <v>1.071204883028355</v>
+        <v>0.8605509373735565</v>
       </c>
       <c r="L15">
-        <v>1.067404978251716</v>
+        <v>0.8730388083684588</v>
       </c>
       <c r="M15">
-        <v>1.075905882713148</v>
+        <v>0.8467254391004554</v>
       </c>
       <c r="N15">
-        <v>1.025269744144686</v>
+        <v>0.9593463245062159</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060386307275033</v>
+        <v>0.8607934116116274</v>
       </c>
       <c r="D16">
-        <v>1.069336755155007</v>
+        <v>0.8738194303609912</v>
       </c>
       <c r="E16">
-        <v>1.065410362691005</v>
+        <v>0.8842341388144773</v>
       </c>
       <c r="F16">
-        <v>1.074119265761149</v>
+        <v>0.8634012146227478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027784734614245</v>
+        <v>1.008203391995971</v>
       </c>
       <c r="J16">
-        <v>1.066539743803525</v>
+        <v>0.8957728887701626</v>
       </c>
       <c r="K16">
-        <v>1.0726595266503</v>
+        <v>0.8908687831534542</v>
       </c>
       <c r="L16">
-        <v>1.068746238523814</v>
+        <v>0.9010196148398468</v>
       </c>
       <c r="M16">
-        <v>1.077426217580263</v>
+        <v>0.8807231887700976</v>
       </c>
       <c r="N16">
-        <v>1.025727893151587</v>
+        <v>0.9687342704637959</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061379665364634</v>
+        <v>0.8758465407606416</v>
       </c>
       <c r="D17">
-        <v>1.070314850342039</v>
+        <v>0.8888368471613477</v>
       </c>
       <c r="E17">
-        <v>1.066317906136354</v>
+        <v>0.8981079691897467</v>
       </c>
       <c r="F17">
-        <v>1.075136867337404</v>
+        <v>0.8801186528195453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027913304691276</v>
+        <v>1.012415945940419</v>
       </c>
       <c r="J17">
-        <v>1.067395552421106</v>
+        <v>0.9090810777831634</v>
       </c>
       <c r="K17">
-        <v>1.07356530840483</v>
+        <v>0.9051218201309071</v>
       </c>
       <c r="L17">
-        <v>1.069581384694722</v>
+        <v>0.9141741893301495</v>
       </c>
       <c r="M17">
-        <v>1.07837175822677</v>
+        <v>0.8966149950657674</v>
       </c>
       <c r="N17">
-        <v>1.026013204448257</v>
+        <v>0.9731591827662768</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061956871269242</v>
+        <v>0.8836547582440941</v>
       </c>
       <c r="D18">
-        <v>1.07088300779776</v>
+        <v>0.8966155670849686</v>
       </c>
       <c r="E18">
-        <v>1.066845089985466</v>
+        <v>0.9052969184323508</v>
       </c>
       <c r="F18">
-        <v>1.07572754687332</v>
+        <v>0.8887513736436226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027987032570145</v>
+        <v>1.014584345431097</v>
       </c>
       <c r="J18">
-        <v>1.067892556135182</v>
+        <v>0.9159686820755807</v>
       </c>
       <c r="K18">
-        <v>1.074091263428414</v>
+        <v>0.9124942411825976</v>
       </c>
       <c r="L18">
-        <v>1.070066311970602</v>
+        <v>0.9209784889509431</v>
       </c>
       <c r="M18">
-        <v>1.078920386481344</v>
+        <v>0.9048130536203834</v>
       </c>
       <c r="N18">
-        <v>1.026178885157277</v>
+        <v>0.9754506662774789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062153313166185</v>
+        <v>0.8861878285179074</v>
       </c>
       <c r="D19">
-        <v>1.071076339711131</v>
+        <v>0.8991375179482642</v>
       </c>
       <c r="E19">
-        <v>1.067024480897345</v>
+        <v>0.9076280328421358</v>
       </c>
       <c r="F19">
-        <v>1.075928470211696</v>
+        <v>0.8915463742666049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028011958044035</v>
+        <v>1.015285182027838</v>
       </c>
       <c r="J19">
-        <v>1.06806165562403</v>
+        <v>0.9182008566708107</v>
       </c>
       <c r="K19">
-        <v>1.074270201335191</v>
+        <v>0.9148829383796526</v>
       </c>
       <c r="L19">
-        <v>1.070231289539305</v>
+        <v>0.9231831204217179</v>
       </c>
       <c r="M19">
-        <v>1.079106967991318</v>
+        <v>0.9074660738731294</v>
       </c>
       <c r="N19">
-        <v>1.026235254060558</v>
+        <v>0.9761934983969167</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061273316100088</v>
+        <v>0.8743417258023406</v>
       </c>
       <c r="D20">
-        <v>1.070210153739542</v>
+        <v>0.8873368738830956</v>
       </c>
       <c r="E20">
-        <v>1.066220760591858</v>
+        <v>0.8967219231302744</v>
       </c>
       <c r="F20">
-        <v>1.075027986093475</v>
+        <v>0.8784519369990523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027899641342426</v>
+        <v>1.011996692700089</v>
       </c>
       <c r="J20">
-        <v>1.067303957936483</v>
+        <v>0.9077524801151704</v>
       </c>
       <c r="K20">
-        <v>1.073468372721619</v>
+        <v>0.9036993783291855</v>
       </c>
       <c r="L20">
-        <v>1.069492009609682</v>
+        <v>0.912861366039075</v>
       </c>
       <c r="M20">
-        <v>1.078270610406651</v>
+        <v>0.8950315371309979</v>
       </c>
       <c r="N20">
-        <v>1.025982669668198</v>
+        <v>0.972717269192677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058386219367464</v>
+        <v>0.8175749157889445</v>
       </c>
       <c r="D21">
-        <v>1.067366240524267</v>
+        <v>0.8305268804499436</v>
       </c>
       <c r="E21">
-        <v>1.063582041234769</v>
+        <v>0.8442761534484419</v>
       </c>
       <c r="F21">
-        <v>1.072066408207493</v>
+        <v>0.814803224641935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027519567765051</v>
+        <v>0.9958991802418976</v>
       </c>
       <c r="J21">
-        <v>1.064814820888958</v>
+        <v>0.8573291770853126</v>
       </c>
       <c r="K21">
-        <v>1.070833428063403</v>
+        <v>0.8496308072450024</v>
       </c>
       <c r="L21">
-        <v>1.067062466209912</v>
+        <v>0.86296053819332</v>
       </c>
       <c r="M21">
-        <v>1.075517297397</v>
+        <v>0.8344110932764446</v>
       </c>
       <c r="N21">
-        <v>1.025152761387739</v>
+        <v>0.9559736493018549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056550372352482</v>
+        <v>0.8175749157889445</v>
       </c>
       <c r="D22">
-        <v>1.065556219911509</v>
+        <v>0.8305268804499436</v>
       </c>
       <c r="E22">
-        <v>1.061902698356805</v>
+        <v>0.8442761534484419</v>
       </c>
       <c r="F22">
-        <v>1.070177614871781</v>
+        <v>0.814803224641935</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027269034763175</v>
+        <v>0.9958991802418976</v>
       </c>
       <c r="J22">
-        <v>1.063229509145785</v>
+        <v>0.8573291770853126</v>
       </c>
       <c r="K22">
-        <v>1.069154614566493</v>
+        <v>0.8496308072450024</v>
       </c>
       <c r="L22">
-        <v>1.065514410761908</v>
+        <v>0.86296053819332</v>
       </c>
       <c r="M22">
-        <v>1.073759307514697</v>
+        <v>0.8344110932764446</v>
       </c>
       <c r="N22">
-        <v>1.024624096838554</v>
+        <v>0.9559736493018549</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057525581796965</v>
+        <v>0.8175749157889445</v>
       </c>
       <c r="D23">
-        <v>1.066517864426389</v>
+        <v>0.8305268804499436</v>
       </c>
       <c r="E23">
-        <v>1.062794907381355</v>
+        <v>0.8442761534484419</v>
       </c>
       <c r="F23">
-        <v>1.071181477348422</v>
+        <v>0.814803224641935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027402951918858</v>
+        <v>0.9958991802418976</v>
       </c>
       <c r="J23">
-        <v>1.064071871144219</v>
+        <v>0.8573291770853126</v>
       </c>
       <c r="K23">
-        <v>1.070046719281726</v>
+        <v>0.8496308072450024</v>
       </c>
       <c r="L23">
-        <v>1.066337042301855</v>
+        <v>0.86296053819332</v>
       </c>
       <c r="M23">
-        <v>1.074693840312597</v>
+        <v>0.8344110932764446</v>
       </c>
       <c r="N23">
-        <v>1.024905014535694</v>
+        <v>0.9559736493018549</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061321377556024</v>
+        <v>0.8750245444439969</v>
       </c>
       <c r="D24">
-        <v>1.070257468879234</v>
+        <v>0.8880175297835151</v>
       </c>
       <c r="E24">
-        <v>1.06626466318387</v>
+        <v>0.8973508731787395</v>
       </c>
       <c r="F24">
-        <v>1.075077193702559</v>
+        <v>0.8792083403364457</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02790581912876</v>
+        <v>1.012186984374095</v>
       </c>
       <c r="J24">
-        <v>1.067345352256247</v>
+        <v>0.9083553876347678</v>
       </c>
       <c r="K24">
-        <v>1.073512181107961</v>
+        <v>0.9043448847012576</v>
       </c>
       <c r="L24">
-        <v>1.069532401153706</v>
+        <v>0.9134571271632397</v>
       </c>
       <c r="M24">
-        <v>1.078316323674491</v>
+        <v>0.8957501819439379</v>
       </c>
       <c r="N24">
-        <v>1.025996469294918</v>
+        <v>0.9729178018834612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065640118342238</v>
+        <v>0.9240646388742874</v>
       </c>
       <c r="D25">
-        <v>1.074505284942765</v>
+        <v>0.9367619056378966</v>
       </c>
       <c r="E25">
-        <v>1.070206291007077</v>
+        <v>0.9424266071755887</v>
       </c>
       <c r="F25">
-        <v>1.079485760284381</v>
+        <v>0.9330256180816349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028439823532324</v>
+        <v>1.025586979226337</v>
       </c>
       <c r="J25">
-        <v>1.071059044842525</v>
+        <v>0.9514486906331389</v>
       </c>
       <c r="K25">
-        <v>1.077440944476843</v>
+        <v>0.9504282274046508</v>
       </c>
       <c r="L25">
-        <v>1.073154477078272</v>
+        <v>0.9559896603277384</v>
       </c>
       <c r="M25">
-        <v>1.082407043118302</v>
+        <v>0.9467609482134578</v>
       </c>
       <c r="N25">
-        <v>1.027234255435885</v>
+        <v>0.9872681886778509</v>
       </c>
     </row>
   </sheetData>
